--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F82B01-F421-44DE-8012-CC83C5042E94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E302635-E289-4A7A-9F7A-8FAB3A732ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="1464" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>Set up centralized configuration with Spring Cloud Config Server and client</t>
+  </si>
+  <si>
+    <t>KEDHARESWAR BATTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Service Registry and register Micro services and enable discovery pattern </t>
+  </si>
+  <si>
+    <t>Setting Up Service Registry and Registering Microservices with Spring Boot</t>
+  </si>
+  <si>
+    <t>Implement fault-tolerance services using circuit breakers</t>
+  </si>
+  <si>
+    <t>KAMIREDDY SATYA SAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the API gateway pattern through Spring Cloud Gateway and setup routes, </t>
+  </si>
+  <si>
+    <t>Parvathi Parvathi gorle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand and appreciate the architecture of Microservice, </t>
+  </si>
+  <si>
+    <t>shreyansh sanjay pandit</t>
   </si>
 </sst>
 </file>
@@ -420,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6216AA-F46B-469B-BE28-1A28DE9AF3EF}">
-  <dimension ref="A4:B7"/>
+  <dimension ref="A4:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -458,6 +485,41 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E302635-E289-4A7A-9F7A-8FAB3A732ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18503310-CDED-4031-8D12-5BE7C1CC7383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="1464" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>shreyansh sanjay pandit</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Praveen Warad</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,13 +132,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,80 +465,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6216AA-F46B-469B-BE28-1A28DE9AF3EF}">
-  <dimension ref="A4:B11"/>
+  <dimension ref="A4:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B11"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B12" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18503310-CDED-4031-8D12-5BE7C1CC7383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAABAB-F96F-4AF3-9A11-1947A7A3408D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Praveen Warad</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Yash Dashpute</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>Build scalable Microservices and implement client-side load balancing,</t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +480,7 @@
   <dimension ref="A4:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B12" sqref="A4:B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +522,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,6 +555,9 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,9 +583,20 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAABAB-F96F-4AF3-9A11-1947A7A3408D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639DA19-D028-4F24-8D60-EFB13AE670F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Praveen Warad</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Yash Dashpute</t>
@@ -480,7 +477,7 @@
   <dimension ref="A4:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,9 +519,6 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -555,9 +549,6 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -584,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,10 +583,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2639DA19-D028-4F24-8D60-EFB13AE670F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1704355-8BC3-4CC0-A08C-BBB75A526923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Build scalable Microservices and implement client-side load balancing,</t>
+  </si>
+  <si>
+    <t>1) Form handling using Formik, Yup.</t>
+  </si>
+  <si>
+    <t>2) Understanding HOC Concepts, Implementing simple HOC Component.</t>
+  </si>
+  <si>
+    <t>3) Routing Transition Concepts (Transition into and Transition from).</t>
+  </si>
+  <si>
+    <t>4) Buffers and Stream, Node JS Modules, Node JS OS, Process, Net, Web and Socket.io Module, Node JS With RDBMS and Mongo DB.</t>
+  </si>
+  <si>
+    <t>Akila</t>
   </si>
 </sst>
 </file>
@@ -156,10 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6216AA-F46B-469B-BE28-1A28DE9AF3EF}">
-  <dimension ref="A4:C13"/>
+  <dimension ref="A4:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,6 +605,32 @@
         <v>19</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1704355-8BC3-4CC0-A08C-BBB75A526923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A8731-4B86-4825-A1FB-2B02E36015D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -103,6 +103,11 @@
   </si>
   <si>
     <t>Akila</t>
+  </si>
+  <si>
+    <t>5) Life cycle methods and hooks
+ methods for class component  
+ hooks for functional component</t>
   </si>
 </sst>
 </file>
@@ -171,11 +176,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6216AA-F46B-469B-BE28-1A28DE9AF3EF}">
-  <dimension ref="A4:C18"/>
+  <dimension ref="A4:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,6 +639,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="2:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A8731-4B86-4825-A1FB-2B02E36015D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A699EE-D8DF-4EE0-BED7-11DB857FEA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
+    <workbookView xWindow="2688" yWindow="2040" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>KRISHNAMOORTHY S</t>
   </si>
@@ -100,21 +100,30 @@
   </si>
   <si>
     <t>4) Buffers and Stream, Node JS Modules, Node JS OS, Process, Net, Web and Socket.io Module, Node JS With RDBMS and Mongo DB.</t>
-  </si>
-  <si>
-    <t>Akila</t>
   </si>
   <si>
     <t>5) Life cycle methods and hooks
  methods for class component  
  hooks for functional component</t>
+  </si>
+  <si>
+    <t>Context API &amp; React Router concepts.</t>
+  </si>
+  <si>
+    <t>Akila, Hashada</t>
+  </si>
+  <si>
+    <t>Ankit Sidharth</t>
+  </si>
+  <si>
+    <t>React Router</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +138,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,17 +187,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6216AA-F46B-469B-BE28-1A28DE9AF3EF}">
-  <dimension ref="A4:C19"/>
+  <dimension ref="A4:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,14 +650,20 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
@@ -634,14 +671,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Topics.xlsx
+++ b/Topics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\wipro\June2024\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A699EE-D8DF-4EE0-BED7-11DB857FEA31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F60BC9-D9EE-4B67-ACFE-9711FF12DFFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2040" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
+    <workbookView xWindow="2304" yWindow="2040" windowWidth="19512" windowHeight="10920" xr2:uid="{AE787DF5-52C7-42BF-BAC9-242F6A921D21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
